--- a/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>KENS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,59 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>41274</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41182</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41090</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -830,20 +843,23 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -888,20 +907,23 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -954,22 +980,25 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -983,22 +1012,25 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1039,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1082,11 +1121,11 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1094,11 +1133,14 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1112,36 +1154,39 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1155,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1232,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1199,22 +1250,25 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1228,22 +1282,25 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1387,8 +1456,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1402,22 +1474,25 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1520,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1460,56 +1538,62 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>41274</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41182</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41090</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1563,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1607,22 +1699,25 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,22 +1745,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1679,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1694,22 +1795,25 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1766,22 +1873,25 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>300000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>300000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>100</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,22 +1969,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E54" s="3">
         <v>300500</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1980,31 +2110,34 @@
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>300000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>300000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -2018,43 +2151,49 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2062,13 +2201,13 @@
         <v>300000</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>700</v>
@@ -2077,13 +2216,16 @@
         <v>700</v>
       </c>
       <c r="J60" s="3">
+        <v>700</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,17 +2253,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,22 +2381,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E66" s="3">
         <v>300100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
@@ -2251,13 +2408,16 @@
         <v>700</v>
       </c>
       <c r="J66" s="3">
+        <v>700</v>
+      </c>
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,13 +2555,16 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39300</v>
+        <v>-39700</v>
       </c>
       <c r="E72" s="3">
         <v>-39300</v>
@@ -2400,22 +2573,25 @@
         <v>-39300</v>
       </c>
       <c r="G72" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-39000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-38800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +2747,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>41274</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41182</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41090</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2608,22 +2802,25 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2824,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -2833,13 +3049,16 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2953,22 +3182,25 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3117,16 +3362,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3181,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>KENS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,63 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41274</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41182</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41090</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +752,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -846,20 +860,23 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>100</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -910,20 +930,23 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,8 +991,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -983,22 +1010,25 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1015,22 +1045,25 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,8 +1109,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1124,11 +1164,11 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1136,11 +1176,14 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1157,39 +1200,42 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,8 +1284,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1253,22 +1305,25 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1285,22 +1340,25 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,8 +1529,11 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1477,22 +1550,25 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,8 +1599,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1541,59 +1620,65 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41274</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41182</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41090</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1706,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1652,8 +1739,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1774,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1702,22 +1795,25 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1759,14 +1858,14 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -1780,8 +1879,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1798,22 +1900,25 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1949,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1876,25 +1984,28 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>300500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>300500</v>
+      </c>
+      <c r="F49" s="3">
         <v>300000</v>
       </c>
-      <c r="E49" s="3">
-        <v>300000</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>100</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,25 +2089,28 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300000</v>
+        <v>300500</v>
       </c>
       <c r="E54" s="3">
         <v>300500</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>300500</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2226,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2113,23 +2244,26 @@
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2139,8 +2273,8 @@
       <c r="E58" s="3">
         <v>300000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>300000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2154,46 +2288,52 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2204,13 +2344,13 @@
         <v>300000</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
@@ -2219,13 +2359,16 @@
         <v>700</v>
       </c>
       <c r="K60" s="3">
+        <v>700</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,20 +2399,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,8 +2539,11 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2393,16 +2551,16 @@
         <v>300000</v>
       </c>
       <c r="E66" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F66" s="3">
         <v>300100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
@@ -2411,13 +2569,16 @@
         <v>700</v>
       </c>
       <c r="K66" s="3">
+        <v>700</v>
+      </c>
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,16 +2659,19 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,13 +2729,16 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39700</v>
+        <v>-39300</v>
       </c>
       <c r="E72" s="3">
         <v>-39300</v>
@@ -2576,22 +2750,25 @@
         <v>-39300</v>
       </c>
       <c r="H72" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-39000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E76" s="3">
+        <v>200</v>
+      </c>
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,45 +2939,51 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41274</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41182</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41090</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2805,22 +3000,25 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3239,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3043,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -3052,13 +3269,16 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,13 +3394,16 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3185,22 +3415,25 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,13 +3584,16 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3365,16 +3611,19 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3654,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3687,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>KENS</t>
   </si>
@@ -1730,8 +1730,8 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -1800,8 +1800,8 @@
       <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
-        <v>1000</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>1100</v>
@@ -1870,8 +1870,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1905,8 +1905,8 @@
       <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
-        <v>1000</v>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K46" s="3">
         <v>1100</v>
@@ -2010,8 +2010,8 @@
       <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3">
-        <v>100</v>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -2115,8 +2115,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2185,8 +2185,8 @@
       <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
-        <v>1100</v>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K54" s="3">
         <v>1200</v>
@@ -2250,8 +2250,8 @@
       <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
-        <v>500</v>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
@@ -2320,8 +2320,8 @@
       <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
-        <v>300</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -2355,8 +2355,8 @@
       <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
-        <v>700</v>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K60" s="3">
         <v>700</v>
@@ -2565,8 +2565,8 @@
       <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
-        <v>700</v>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K66" s="3">
         <v>700</v>
@@ -2755,8 +2755,8 @@
       <c r="I72" s="3">
         <v>-39000</v>
       </c>
-      <c r="J72" s="3">
-        <v>-38800</v>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K72" s="3">
         <v>-38700</v>
@@ -2895,8 +2895,8 @@
       <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
-        <v>400</v>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K76" s="3">
         <v>500</v>

--- a/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>KENS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,71 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>41182</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +763,14 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +804,14 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +845,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -863,20 +891,26 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -933,20 +973,26 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1044,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1013,22 +1067,28 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1048,22 +1108,28 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1143,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1180,14 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1123,8 +1197,8 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1147,8 +1221,14 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1167,23 +1247,29 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,45 +1289,51 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1252,8 +1344,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,8 +1385,14 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1308,22 +1412,28 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1343,22 +1453,28 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1631,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,8 +1672,14 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1553,22 +1699,28 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,8 +1754,14 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1623,62 +1781,74 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>41182</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1879,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1730,20 +1904,26 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1957,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1798,22 +1984,28 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +2039,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1861,14 +2059,14 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -1876,14 +2074,20 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1903,22 +2107,28 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2162,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +2203,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1999,16 +2221,16 @@
         <v>300500</v>
       </c>
       <c r="F49" s="3">
+        <v>300500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>300500</v>
+      </c>
+      <c r="H49" s="3">
         <v>300000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3">
-        <v>100</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2016,14 +2238,20 @@
       <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3">
-        <v>100</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>100</v>
+      </c>
+      <c r="O49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2326,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2103,17 +2343,17 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2121,14 +2361,20 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,8 +2408,14 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2177,28 +2429,34 @@
         <v>300500</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>300500</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>300500</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2487,51 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2276,11 +2544,11 @@
       <c r="F58" s="3">
         <v>300000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>300000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2291,14 +2559,20 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2308,32 +2582,38 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2347,28 +2627,34 @@
         <v>300000</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="I60" s="3">
-        <v>700</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
+        <v>700</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2688,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2413,15 +2705,15 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2852,14 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2554,31 +2870,37 @@
         <v>300000</v>
       </c>
       <c r="F66" s="3">
+        <v>300000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H66" s="3">
         <v>300100</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
       <c r="I66" s="3">
-        <v>700</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
+        <v>700</v>
+      </c>
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2674,10 +3010,10 @@
         <v>200</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,8 +3074,14 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2753,22 +3101,28 @@
         <v>-39300</v>
       </c>
       <c r="I72" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-39000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>-38700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-38400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-38000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,8 +3238,14 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2884,31 +3256,37 @@
         <v>200</v>
       </c>
       <c r="F76" s="3">
+        <v>200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>200</v>
+      </c>
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,48 +3320,60 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>41182</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3003,22 +3393,28 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3670,14 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3263,22 +3697,28 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3732,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3769,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,19 +3851,25 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3418,22 +3878,28 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,19 +4073,25 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3614,16 +4106,22 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>600</v>
+      </c>
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +4155,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3690,6 +4194,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>KENS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41182</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41090</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -897,20 +910,23 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -979,20 +998,23 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,8 +1071,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1073,22 +1099,25 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1114,22 +1143,25 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1197,11 +1233,11 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1227,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1253,11 +1292,11 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1265,11 +1304,14 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1295,48 +1337,51 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,8 +1439,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1418,22 +1469,25 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1459,22 +1513,25 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1678,8 +1747,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1705,22 +1777,25 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,8 +1835,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1787,68 +1865,74 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41182</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41090</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1910,11 +1996,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1990,22 +2082,25 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2065,20 +2163,20 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2086,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2113,22 +2214,25 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2227,22 +2337,22 @@
         <v>300500</v>
       </c>
       <c r="H49" s="3">
+        <v>300500</v>
+      </c>
+      <c r="I49" s="3">
         <v>300000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
-        <v>100</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2349,23 +2468,23 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,8 +2536,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2435,28 +2560,31 @@
         <v>300500</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>300500</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2516,22 +2646,25 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2550,8 +2683,8 @@
       <c r="H58" s="3">
         <v>300000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>300000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2565,19 +2698,22 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2588,37 +2724,40 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300000</v>
+        <v>300100</v>
       </c>
       <c r="E60" s="3">
         <v>300000</v>
@@ -2633,28 +2772,31 @@
         <v>300000</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2711,12 +2856,12 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,13 +3012,16 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300000</v>
+        <v>300100</v>
       </c>
       <c r="E66" s="3">
         <v>300000</v>
@@ -2876,31 +3033,34 @@
         <v>300000</v>
       </c>
       <c r="H66" s="3">
+        <v>300000</v>
+      </c>
+      <c r="I66" s="3">
         <v>300100</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
       <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,13 +3162,16 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>200</v>
@@ -3016,7 +3183,7 @@
         <v>200</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,8 +3250,11 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3107,22 +3280,25 @@
         <v>-39300</v>
       </c>
       <c r="K72" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-39000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>-38700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,13 +3426,16 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E76" s="3">
         <v>200</v>
@@ -3262,31 +3447,34 @@
         <v>200</v>
       </c>
       <c r="H76" s="3">
+        <v>200</v>
+      </c>
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,54 +3514,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41182</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41090</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3399,22 +3593,25 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3703,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -3712,13 +3928,16 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,19 +4083,22 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3884,22 +4113,25 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,22 +4321,25 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -4112,16 +4357,19 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>KENS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,82 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>41182</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>41090</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>40999</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +783,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,13 +907,15 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -913,20 +941,26 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1001,20 +1041,26 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1124,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1102,22 +1156,28 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1146,22 +1206,28 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1290,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1236,14 +1310,14 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1266,52 +1340,64 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1340,54 +1426,60 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1540,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1472,22 +1576,28 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1516,22 +1626,28 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1890,14 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1780,22 +1926,28 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1990,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1868,71 +2026,83 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>41182</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>41090</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>40999</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2139,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1999,20 +2173,26 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2235,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2085,22 +2271,28 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2335,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2166,14 +2364,14 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2181,19 +2379,25 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2217,22 +2421,28 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2485,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,16 +2535,22 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300500</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>300500</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>300500</v>
@@ -2340,16 +2562,16 @@
         <v>300500</v>
       </c>
       <c r="I49" s="3">
+        <v>300500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K49" s="3">
         <v>300000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3">
-        <v>100</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
@@ -2357,14 +2579,20 @@
       <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3">
-        <v>100</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2471,17 +2711,17 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2489,14 +2729,20 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,16 +2785,22 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300500</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>300500</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>300500</v>
@@ -2563,28 +2815,34 @@
         <v>300500</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>300500</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>300500</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2879,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2649,30 +2911,36 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>300000</v>
@@ -2686,11 +2954,11 @@
       <c r="I58" s="3">
         <v>300000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K58" s="3">
+        <v>300000</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2701,14 +2969,20 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,10 +2990,10 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2727,43 +3001,49 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>300100</v>
-      </c>
-      <c r="E60" s="3">
-        <v>300000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300000</v>
       </c>
       <c r="G60" s="3">
         <v>300000</v>
@@ -2775,28 +3055,34 @@
         <v>300000</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="L60" s="3">
-        <v>700</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
       </c>
       <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3125,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2859,15 +3151,15 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,19 +3325,25 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
         <v>300100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>300000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>300000</v>
       </c>
       <c r="G66" s="3">
         <v>300000</v>
@@ -3036,31 +3352,37 @@
         <v>300000</v>
       </c>
       <c r="I66" s="3">
+        <v>300000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K66" s="3">
         <v>300100</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
       <c r="L66" s="3">
-        <v>700</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
       </c>
       <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3174,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>200</v>
@@ -3186,10 +3522,10 @@
         <v>200</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3595,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3283,22 +3631,28 @@
         <v>-39300</v>
       </c>
       <c r="L72" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-39000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-38700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-38400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-38000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,19 +3795,25 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>200</v>
-      </c>
-      <c r="F76" s="3">
-        <v>200</v>
       </c>
       <c r="G76" s="3">
         <v>200</v>
@@ -3450,31 +3822,37 @@
         <v>200</v>
       </c>
       <c r="I76" s="3">
+        <v>200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>200</v>
+      </c>
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3895,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>41182</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>41090</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>40999</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3596,22 +3986,28 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4320,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3922,22 +4356,28 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>300500</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4103,11 +4563,11 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4116,22 +4576,28 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4810,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,19 +4825,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+        <v>-300500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4360,16 +4852,22 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>600</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4910,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4958,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KENS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>KENS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41274</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41182</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41090</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>40999</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,16 +922,17 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -947,20 +961,23 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>100</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1047,20 +1067,23 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,13 +1152,14 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1162,22 +1189,25 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,22 +1242,25 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1330,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1316,11 +1353,11 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1372,8 +1412,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1381,11 +1421,11 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1393,16 +1433,19 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1432,57 +1475,60 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,13 +1595,16 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1582,27 +1634,30 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1632,22 +1687,25 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,13 +1966,16 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1932,22 +2005,25 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,13 +2072,16 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2032,77 +2111,83 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41274</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41182</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41090</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>40999</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2179,11 +2266,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2277,22 +2370,25 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2370,20 +2469,20 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2400,7 +2502,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2427,22 +2529,25 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2553,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>300500</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>300500</v>
@@ -2568,22 +2679,22 @@
         <v>300500</v>
       </c>
       <c r="K49" s="3">
+        <v>300500</v>
+      </c>
+      <c r="L49" s="3">
         <v>300000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
-        <v>100</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,49 +2808,52 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2800,10 +2926,10 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>300500</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>300500</v>
@@ -2821,28 +2947,31 @@
         <v>300500</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>300500</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2917,33 +3048,36 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>300000</v>
@@ -2960,8 +3094,8 @@
       <c r="K58" s="3">
         <v>300000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>300000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -2975,14 +3109,17 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2996,7 +3133,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3007,46 +3144,49 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
         <v>300100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300000</v>
       </c>
       <c r="H60" s="3">
         <v>300000</v>
@@ -3061,28 +3201,31 @@
         <v>300000</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,38 +3274,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,22 +3486,25 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
+        <v>100</v>
+      </c>
+      <c r="G66" s="3">
         <v>300100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>300000</v>
       </c>
       <c r="H66" s="3">
         <v>300000</v>
@@ -3358,31 +3516,34 @@
         <v>300000</v>
       </c>
       <c r="K66" s="3">
+        <v>300000</v>
+      </c>
+      <c r="L66" s="3">
         <v>300100</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
       <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3516,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>200</v>
@@ -3528,7 +3696,7 @@
         <v>200</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,13 +3772,16 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39300</v>
+        <v>-39400</v>
       </c>
       <c r="E72" s="3">
         <v>-39300</v>
@@ -3637,22 +3811,25 @@
         <v>-39300</v>
       </c>
       <c r="N72" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-39000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-38700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-38400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,22 +3984,25 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>200</v>
       </c>
       <c r="H76" s="3">
         <v>200</v>
@@ -3828,31 +4014,34 @@
         <v>200</v>
       </c>
       <c r="K76" s="3">
+        <v>200</v>
+      </c>
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,68 +4090,74 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41274</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41182</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41090</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>40999</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>40908</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3992,22 +4187,25 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4362,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -4371,13 +4588,16 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4555,22 +4785,22 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>300500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4582,22 +4812,25 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,31 +5059,34 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4858,16 +5104,19 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>
